--- a/GN_Data/top000To100.xlsx
+++ b/GN_Data/top000To100.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超\Documents\GitHub\keg-operator-data\GN_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="210" yWindow="435" windowWidth="21240" windowHeight="9210"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="229">
   <si>
     <t>USERAGENT</t>
   </si>
@@ -23,311 +28,782 @@
     <t>CNT</t>
   </si>
   <si>
+    <t>apache-httpclient</t>
+  </si>
+  <si>
+    <t>micromessenger</t>
+  </si>
+  <si>
+    <t>mqqbrowser</t>
+  </si>
+  <si>
+    <t>weibo</t>
+  </si>
+  <si>
+    <t>android-qzone</t>
+  </si>
+  <si>
+    <t>rrspring</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>ntes android</t>
+  </si>
+  <si>
+    <t>maui wap browser</t>
+  </si>
+  <si>
+    <t>anclient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juc </t>
+  </si>
+  <si>
+    <t>ucweb</t>
+  </si>
+  <si>
+    <t>itunes-iphone</t>
+  </si>
+  <si>
+    <t>smarteye_ios</t>
+  </si>
+  <si>
+    <t>weixin</t>
+  </si>
+  <si>
+    <t>nativehost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locationd </t>
+  </si>
+  <si>
+    <t>nokia5233</t>
+  </si>
+  <si>
+    <t>3gpp-gba</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">securityd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">淘宝 3.0.6 </t>
+  </si>
+  <si>
+    <t>momochat</t>
+  </si>
+  <si>
+    <t>maui_wap_browser</t>
+  </si>
+  <si>
+    <t>nokia5230</t>
+  </si>
+  <si>
+    <t>疯狂猜图</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qq音乐 3.4 </t>
+  </si>
+  <si>
+    <t>googleanalytics</t>
+  </si>
+  <si>
+    <t>360mobiledesktop</t>
+  </si>
+  <si>
+    <t>untrusted</t>
+  </si>
+  <si>
+    <t>micromessenger client</t>
+  </si>
+  <si>
+    <t>taobao2013</t>
+  </si>
+  <si>
+    <t>nokiae63</t>
+  </si>
+  <si>
+    <t>phoenix3</t>
+  </si>
+  <si>
+    <t>凯立德导航</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mapi 1.0 </t>
+  </si>
+  <si>
+    <t>e63</t>
+  </si>
+  <si>
+    <t>newsboard</t>
+  </si>
+  <si>
+    <t>qiubai</t>
+  </si>
+  <si>
+    <t>silverlight</t>
+  </si>
+  <si>
+    <t>~???280</t>
+  </si>
+  <si>
+    <t>zdm</t>
+  </si>
+  <si>
+    <t>腾讯微博</t>
+  </si>
+  <si>
+    <t>weico</t>
+  </si>
+  <si>
+    <t>skynet</t>
+  </si>
+  <si>
+    <t>mi 2; miui</t>
+  </si>
+  <si>
+    <t>android sohu news</t>
+  </si>
+  <si>
+    <t>qqnews</t>
+  </si>
+  <si>
+    <t>wp7 http client</t>
+  </si>
+  <si>
+    <t>tbclient</t>
+  </si>
+  <si>
+    <t>nokiae71</t>
+  </si>
+  <si>
+    <t>wget</t>
+  </si>
+  <si>
+    <t>weibo_iphone</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>android-mms</t>
+  </si>
+  <si>
+    <t>kugou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今日头条 2.6 </t>
+  </si>
+  <si>
+    <t>iuc</t>
+  </si>
+  <si>
+    <t>sohunews</t>
+  </si>
+  <si>
+    <t>kwplayer</t>
+  </si>
+  <si>
+    <t>gt-n7100_4.1.2_weibo_3.5.2_android</t>
+  </si>
+  <si>
+    <t>anzhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobilesafed </t>
+  </si>
+  <si>
+    <t>nokiac5-03</t>
+  </si>
+  <si>
+    <t>iic2.0</t>
+  </si>
+  <si>
+    <t>aibooks_glsc</t>
+  </si>
+  <si>
+    <t>symbian qqmail micromessenger client</t>
+  </si>
+  <si>
+    <t>android_celllocation_2.0.110953_papbeagjlpdnkccbabdnaji</t>
+  </si>
+  <si>
+    <t>nokian8-00</t>
+  </si>
+  <si>
+    <t>~???270</t>
+  </si>
+  <si>
+    <t>iphoneos</t>
+  </si>
+  <si>
+    <t>applecoremedia</t>
+  </si>
+  <si>
+    <t>epubreader</t>
+  </si>
+  <si>
+    <t>qqmusic</t>
+  </si>
+  <si>
+    <t>kbatterydoctor</t>
+  </si>
+  <si>
+    <t>android cms client 2.0</t>
+  </si>
+  <si>
+    <t>nokiac7-00</t>
+  </si>
+  <si>
+    <t>amapiphone</t>
+  </si>
+  <si>
+    <t>e71</t>
+  </si>
+  <si>
+    <t>dpscope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mapi 1.1 </t>
+  </si>
+  <si>
+    <t>n: samsung</t>
+  </si>
+  <si>
+    <t>smarteye_ios_91</t>
+  </si>
+  <si>
+    <t>juc</t>
+  </si>
+  <si>
+    <t>android_celllocation_2.0_papbeagjlpdnkccbabdnajidfgodlo</t>
+  </si>
+  <si>
+    <t>ynote-android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qzone 3.6.3.1 </t>
+  </si>
+  <si>
+    <t>pervasivebiz</t>
+  </si>
+  <si>
+    <t>bdnews_android_phone</t>
+  </si>
+  <si>
+    <t>nokiac6-00</t>
+  </si>
+  <si>
+    <t>amb_400</t>
+  </si>
+  <si>
+    <t>samsung-android</t>
+  </si>
+  <si>
+    <t>ifengnews</t>
+  </si>
+  <si>
+    <t>android_celllocation_2.0.android.htc.china.location.ser</t>
+  </si>
+  <si>
+    <t>gt-i9300_4.1.2_weibo_3.5.2_android</t>
+  </si>
+  <si>
+    <t>select USERAGENT USERAGENT, CNT CNT from (select * from "BJ_GB"."USERAGENT_CNT_TOP300_0702")</t>
+  </si>
+  <si>
     <t>mozilla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>dalvik</t>
-  </si>
-  <si>
-    <t>apache-httpclient</t>
-  </si>
-  <si>
-    <t>micromessenger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>android qqmail http client</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ邮箱</t>
+  </si>
+  <si>
+    <t>办公</t>
+  </si>
+  <si>
+    <t>办公</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>com.sina.weibo</t>
-  </si>
-  <si>
-    <t>mqqbrowser</t>
-  </si>
-  <si>
-    <t>weibo</t>
-  </si>
-  <si>
-    <t>android-qzone</t>
-  </si>
-  <si>
-    <t>rrspring</t>
-  </si>
-  <si>
-    <t>qq</t>
-  </si>
-  <si>
-    <t>ntes android</t>
-  </si>
-  <si>
-    <t>maui wap browser</t>
-  </si>
-  <si>
-    <t>anclient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">juc </t>
-  </si>
-  <si>
-    <t>ucweb</t>
-  </si>
-  <si>
-    <t>itunes-iphone</t>
-  </si>
-  <si>
-    <t>smarteye_ios</t>
-  </si>
-  <si>
-    <t>weixin</t>
-  </si>
-  <si>
-    <t>nativehost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locationd </t>
-  </si>
-  <si>
-    <t>nokia5233</t>
-  </si>
-  <si>
-    <t>3gpp-gba</t>
-  </si>
-  <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">securityd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">淘宝 3.0.6 </t>
-  </si>
-  <si>
-    <t>momochat</t>
-  </si>
-  <si>
-    <t>maui_wap_browser</t>
-  </si>
-  <si>
-    <t>nokia5230</t>
-  </si>
-  <si>
-    <t>疯狂猜图</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qq音乐 3.4 </t>
-  </si>
-  <si>
-    <t>googleanalytics</t>
-  </si>
-  <si>
-    <t>360mobiledesktop</t>
-  </si>
-  <si>
-    <t>untrusted</t>
-  </si>
-  <si>
-    <t>micromessenger client</t>
-  </si>
-  <si>
-    <t>taobao2013</t>
-  </si>
-  <si>
-    <t>nokiae63</t>
-  </si>
-  <si>
-    <t>phoenix3</t>
-  </si>
-  <si>
-    <t>凯立德导航</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mapi 1.0 </t>
-  </si>
-  <si>
-    <t>e63</t>
-  </si>
-  <si>
-    <t>newsboard</t>
-  </si>
-  <si>
-    <t>qiubai</t>
-  </si>
-  <si>
-    <t>silverlight</t>
-  </si>
-  <si>
-    <t>~???280</t>
-  </si>
-  <si>
-    <t>zdm</t>
-  </si>
-  <si>
-    <t>腾讯微博</t>
-  </si>
-  <si>
-    <t>weico</t>
-  </si>
-  <si>
-    <t>skynet</t>
-  </si>
-  <si>
-    <t>mi 2; miui</t>
-  </si>
-  <si>
-    <t>android sohu news</t>
-  </si>
-  <si>
-    <t>qqnews</t>
-  </si>
-  <si>
-    <t>wp7 http client</t>
-  </si>
-  <si>
-    <t>tbclient</t>
-  </si>
-  <si>
-    <t>nokiae71</t>
-  </si>
-  <si>
-    <t>wget</t>
-  </si>
-  <si>
-    <t>weibo_iphone</t>
-  </si>
-  <si>
-    <t>profile</t>
-  </si>
-  <si>
-    <t>android-mms</t>
-  </si>
-  <si>
-    <t>kugou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今日头条 2.6 </t>
-  </si>
-  <si>
-    <t>iuc</t>
-  </si>
-  <si>
-    <t>sohunews</t>
-  </si>
-  <si>
-    <t>kwplayer</t>
-  </si>
-  <si>
-    <t>gt-n7100_4.1.2_weibo_3.5.2_android</t>
-  </si>
-  <si>
-    <t>anzhi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mobilesafed </t>
-  </si>
-  <si>
-    <t>nokiac5-03</t>
-  </si>
-  <si>
-    <t>iic2.0</t>
-  </si>
-  <si>
-    <t>aibooks_glsc</t>
-  </si>
-  <si>
-    <t>symbian qqmail micromessenger client</t>
-  </si>
-  <si>
-    <t>android_celllocation_2.0.110953_papbeagjlpdnkccbabdnaji</t>
-  </si>
-  <si>
-    <t>nokian8-00</t>
-  </si>
-  <si>
-    <t>~???270</t>
-  </si>
-  <si>
-    <t>iphoneos</t>
-  </si>
-  <si>
-    <t>applecoremedia</t>
-  </si>
-  <si>
-    <t>epubreader</t>
-  </si>
-  <si>
-    <t>qqmusic</t>
-  </si>
-  <si>
-    <t>kbatterydoctor</t>
-  </si>
-  <si>
-    <t>android cms client 2.0</t>
-  </si>
-  <si>
-    <t>nokiac7-00</t>
-  </si>
-  <si>
-    <t>amapiphone</t>
-  </si>
-  <si>
-    <t>e71</t>
-  </si>
-  <si>
-    <t>dpscope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mapi 1.1 </t>
-  </si>
-  <si>
-    <t>n: samsung</t>
-  </si>
-  <si>
-    <t>smarteye_ios_91</t>
-  </si>
-  <si>
-    <t>juc</t>
-  </si>
-  <si>
-    <t>android_celllocation_2.0_papbeagjlpdnkccbabdnajidfgodlo</t>
-  </si>
-  <si>
-    <t>ynote-android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qzone 3.6.3.1 </t>
-  </si>
-  <si>
-    <t>pervasivebiz</t>
-  </si>
-  <si>
-    <t>bdnews_android_phone</t>
-  </si>
-  <si>
-    <t>nokiac6-00</t>
-  </si>
-  <si>
-    <t>amb_400</t>
-  </si>
-  <si>
-    <t>samsung-android</t>
-  </si>
-  <si>
-    <t>ifengnews</t>
-  </si>
-  <si>
-    <t>android_celllocation_2.0.android.htc.china.location.ser</t>
-  </si>
-  <si>
-    <t>gt-i9300_4.1.2_weibo_3.5.2_android</t>
-  </si>
-  <si>
-    <t>select USERAGENT USERAGENT, CNT CNT from (select * from "BJ_GB"."USERAGENT_CNT_TOP300_0702")</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪微博</t>
+  </si>
+  <si>
+    <t>社交</t>
+  </si>
+  <si>
+    <t>社交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ浏览器</t>
+  </si>
+  <si>
+    <t>浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ空间</t>
+  </si>
+  <si>
+    <t>社交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+  </si>
+  <si>
+    <t>腾讯</t>
+  </si>
+  <si>
+    <t>手机QQ</t>
+  </si>
+  <si>
+    <t>网易新闻</t>
+  </si>
+  <si>
+    <t>资讯</t>
+  </si>
+  <si>
+    <t>资讯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC浏览器</t>
+  </si>
+  <si>
+    <t>浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>社交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>生活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陌陌</t>
+  </si>
+  <si>
+    <t>通信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>休闲益智</t>
+  </si>
+  <si>
+    <t>智力测验</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>单机</t>
+  </si>
+  <si>
+    <t>QQ音乐</t>
+  </si>
+  <si>
+    <t>影音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>360安全桌面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯立德手机导航地图</t>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>糗事百科</t>
+  </si>
+  <si>
+    <t>阅读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度新闻</t>
+  </si>
+  <si>
+    <t>资讯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰新闻</t>
+  </si>
+  <si>
+    <t>新浪微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐新闻</t>
+  </si>
+  <si>
+    <t>腾讯新闻</t>
+  </si>
+  <si>
+    <t>新闻</t>
+  </si>
+  <si>
+    <t>娱乐</t>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人</t>
+  </si>
+  <si>
+    <t>Google Analytics</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>分析</t>
+  </si>
+  <si>
+    <t>情报</t>
+  </si>
+  <si>
+    <t>酷狗音乐</t>
+  </si>
+  <si>
+    <t>影音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日头条</t>
+  </si>
+  <si>
+    <t>有道云笔记</t>
+  </si>
+  <si>
+    <t>商业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartEyes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>miui天气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>iTunes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷我音乐</t>
+  </si>
+  <si>
+    <t>安智市场</t>
+  </si>
+  <si>
+    <t>安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub阅读器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartEyes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逛空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷人人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找应用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收发邮件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买东西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>听歌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化手机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买东西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逛空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买东西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查天气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随手拍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>听歌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找应用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化手机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收发邮件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化手机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随手拍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -346,13 +822,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -364,109 +866,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -501,7 +958,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,7 +993,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -748,851 +1205,1357 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:B301"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="45.875" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="7" max="7" width="35.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="5">
+        <v>287662739</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="3">
+        <v>192946454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>287662739</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25">
-      <c r="A3" t="s">
+      <c r="B4" s="3">
+        <v>90275759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>192946454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>90275759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>37448827</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.25">
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1">
         <v>37028777</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.25">
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1">
         <v>33493127</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.25">
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>21821674</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.25">
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9">
         <v>19842011</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25">
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>19405125</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.25">
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11">
         <v>13689345</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.25">
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>13283986</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.25">
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10761355</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>6960914</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <v>6521405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6454703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25">
+      <c r="A17" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10761355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <v>6960914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>6521405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>6454703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25">
-      <c r="A17" t="s">
-        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>6108640</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
         <v>5926972</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.25">
+      <c r="G18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1">
         <v>5260309</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25">
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1">
         <v>5028097</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25">
-      <c r="A21" t="s">
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4497907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4388348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3554276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3515772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1">
+      <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
-        <v>4497907</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25">
-      <c r="A22" t="s">
+      <c r="B25" s="3">
+        <v>2889255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1">
+      <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
-        <v>4388348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.25">
-      <c r="A23" t="s">
+      <c r="B26" s="3">
+        <v>2853888</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.25">
+      <c r="A27" t="s">
         <v>23</v>
-      </c>
-      <c r="B23" s="1">
-        <v>3554276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3515772</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2889255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.25">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2853888</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.25">
-      <c r="A27" t="s">
-        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>2747959</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.25">
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>2708461</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1">
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1">
+      <c r="A29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5">
         <v>2542238</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="C29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1">
+      <c r="A30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="3">
         <v>2512175</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31">
         <v>2469363</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.25">
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1">
         <v>2455450</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.25">
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1">
         <v>2445775</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.25">
+      <c r="C33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" t="s">
+        <v>161</v>
+      </c>
+      <c r="H33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1">
         <v>2405508</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="14.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1">
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1">
+      <c r="A35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="3">
         <v>2349975</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25">
+    <row r="36" spans="1:8" ht="14.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1">
         <v>2349398</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.25">
-      <c r="B37" s="1">
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" t="s">
+        <v>140</v>
+      </c>
+      <c r="H36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="2" customFormat="1">
+      <c r="B37" s="3">
         <v>2253752</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25">
+    <row r="38" spans="1:8" ht="14.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1">
         <v>2250885</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="14.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="2" customFormat="1">
+      <c r="A39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3">
         <v>2125308</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
+    <row r="40" spans="1:8" s="2" customFormat="1">
+      <c r="A40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="3">
         <v>2084388</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.25">
+    <row r="41" spans="1:8" ht="14.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1">
         <v>1999669</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="14.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
+      <c r="C41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="2" customFormat="1">
+      <c r="A42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="3">
         <v>1984737</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1">
+    <row r="43" spans="1:8" s="2" customFormat="1">
+      <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="3">
         <v>1927674</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
+    <row r="44" spans="1:8" s="2" customFormat="1">
+      <c r="A44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="3">
         <v>1885158</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.25">
+    <row r="45" spans="1:8" ht="14.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B45" s="1">
         <v>1874204</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="14.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
+      <c r="C45" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="2" customFormat="1">
+      <c r="A46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="3">
         <v>1846262</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
+    <row r="47" spans="1:8" s="2" customFormat="1">
+      <c r="A47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="3">
         <v>1814247</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
+    <row r="48" spans="1:8" s="2" customFormat="1">
+      <c r="A48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="3">
         <v>1780979</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.25">
+    <row r="49" spans="1:8" ht="14.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1">
         <v>1650260</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="14.25">
+      <c r="C49" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B50" s="1">
         <v>1598820</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="14.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1">
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" t="s">
+        <v>178</v>
+      </c>
+      <c r="H50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="2" customFormat="1">
+      <c r="A51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="3">
         <v>1575756</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1">
+        <v>47</v>
+      </c>
+      <c r="B52">
         <v>1568098</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="14.25">
+      <c r="C52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" t="s">
+        <v>181</v>
+      </c>
+      <c r="G52" t="s">
+        <v>179</v>
+      </c>
+      <c r="H52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1">
         <v>1544541</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="14.25">
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" t="s">
+        <v>152</v>
+      </c>
+      <c r="H53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B54" s="1">
         <v>1520679</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="14.25">
-      <c r="A55" t="s">
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" t="s">
+        <v>155</v>
+      </c>
+      <c r="G54" t="s">
+        <v>153</v>
+      </c>
+      <c r="H54" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="2" customFormat="1">
+      <c r="A55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1511151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56">
+        <v>1493361</v>
+      </c>
+      <c r="C56" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" t="s">
+        <v>156</v>
+      </c>
+      <c r="H56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="2" customFormat="1">
+      <c r="A57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1483328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="2" customFormat="1">
+      <c r="A58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1461495</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
-        <v>1511151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="14.25">
-      <c r="A56" t="s">
+      <c r="B59">
+        <v>1436813</v>
+      </c>
+      <c r="C59" t="s">
+        <v>125</v>
+      </c>
+      <c r="G59" t="s">
+        <v>157</v>
+      </c>
+      <c r="H59" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="2" customFormat="1">
+      <c r="A60" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
-        <v>1493361</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="14.25">
-      <c r="A57" t="s">
+      <c r="B60" s="3">
+        <v>1434777</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
-        <v>1483328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="14.25">
-      <c r="A58" t="s">
+      <c r="B61">
+        <v>1416116</v>
+      </c>
+      <c r="G61" t="s">
+        <v>183</v>
+      </c>
+      <c r="H61" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.25">
+      <c r="A62" t="s">
         <v>57</v>
-      </c>
-      <c r="B58" s="1">
-        <v>1461495</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1">
-        <v>1436813</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="14.25">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1434777</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="14.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1">
-        <v>1416116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="14.25">
-      <c r="A62" t="s">
-        <v>61</v>
       </c>
       <c r="B62" s="1">
         <v>1415576</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="14.25">
+      <c r="C62" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B63" s="1">
         <v>1401584</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="14.25">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1">
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="G63" t="s">
+        <v>168</v>
+      </c>
+      <c r="H63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="2" customFormat="1">
+      <c r="A64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="3">
         <v>1375741</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="14.25">
+    <row r="65" spans="1:8" ht="14.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B65" s="1">
         <v>1363280</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="14.25">
+      <c r="C65" t="s">
+        <v>149</v>
+      </c>
+      <c r="G65" t="s">
+        <v>158</v>
+      </c>
+      <c r="H65" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66">
+        <v>1350274</v>
+      </c>
+      <c r="C66" t="s">
+        <v>136</v>
+      </c>
+      <c r="G66" t="s">
+        <v>184</v>
+      </c>
+      <c r="H66" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67">
+        <v>1334916</v>
+      </c>
+      <c r="C67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G67" t="s">
+        <v>159</v>
+      </c>
+      <c r="H67" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68">
+        <v>1299058</v>
+      </c>
+      <c r="C68" t="s">
+        <v>162</v>
+      </c>
+      <c r="G68" t="s">
+        <v>185</v>
+      </c>
+      <c r="H68" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="4" customFormat="1">
+      <c r="A69" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1269186</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1">
+      <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
-        <v>1350274</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="14.25">
-      <c r="A67" t="s">
+      <c r="B70" s="3">
+        <v>1257293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1">
+      <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
-        <v>1334916</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="14.25">
-      <c r="A68" t="s">
+      <c r="B71" s="3">
+        <v>1243106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1">
+      <c r="A72" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
-        <v>1299058</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="14.25">
-      <c r="A69" t="s">
+      <c r="B72" s="3">
+        <v>1229970</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="14.25">
+      <c r="A73" t="s">
         <v>68</v>
-      </c>
-      <c r="B69" s="1">
-        <v>1269186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="14.25">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="1">
-        <v>1257293</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="14.25">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="1">
-        <v>1243106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="14.25">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="1">
-        <v>1229970</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="14.25">
-      <c r="A73" t="s">
-        <v>72</v>
       </c>
       <c r="B73" s="1">
         <v>1217478</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="14.25">
-      <c r="A74" t="s">
+      <c r="C73" t="s">
+        <v>104</v>
+      </c>
+      <c r="G73" t="s">
+        <v>193</v>
+      </c>
+      <c r="H73" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1">
+      <c r="A74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1197470</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="2" customFormat="1">
+      <c r="A75" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1177334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="2" customFormat="1">
+      <c r="A76" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1169502</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="2" customFormat="1">
+      <c r="A77" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1145689</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="4" customFormat="1">
+      <c r="A78" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
-        <v>1197470</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="14.25">
-      <c r="A75" t="s">
+      <c r="B78" s="5">
+        <v>1140008</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14.25">
+      <c r="A79" t="s">
         <v>74</v>
-      </c>
-      <c r="B75" s="1">
-        <v>1177334</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="14.25">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="1">
-        <v>1169502</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="14.25">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="1">
-        <v>1145689</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="14.25">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="1">
-        <v>1140008</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="14.25">
-      <c r="A79" t="s">
-        <v>78</v>
       </c>
       <c r="B79" s="1">
         <v>1126209</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="14.25">
+      <c r="C79" t="s">
+        <v>189</v>
+      </c>
+      <c r="G79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H79" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B80" s="1">
         <v>1084439</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="14.25">
-      <c r="A81" t="s">
+      <c r="C80" t="s">
+        <v>136</v>
+      </c>
+      <c r="G80" t="s">
+        <v>135</v>
+      </c>
+      <c r="H80" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="4" customFormat="1">
+      <c r="A81" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="5">
+        <v>1042122</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="2" customFormat="1">
+      <c r="A82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1040487</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="2" customFormat="1">
+      <c r="A83" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1029724</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="2" customFormat="1">
+      <c r="A84" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1018246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="2" customFormat="1">
+      <c r="A85" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
-        <v>1042122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="14.25">
-      <c r="A82" t="s">
+      <c r="B85" s="3">
+        <v>1005942</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="4" customFormat="1">
+      <c r="A86" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
-        <v>1040487</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="14.25">
-      <c r="A83" t="s">
+      <c r="B86" s="5">
+        <v>997157</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="2" customFormat="1">
+      <c r="A87" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="1">
-        <v>1029724</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="14.25">
-      <c r="A84" t="s">
+      <c r="B87" s="3">
+        <v>994860</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="2" customFormat="1">
+      <c r="A88" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="1">
-        <v>1018246</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="14.25">
-      <c r="A85" t="s">
+      <c r="B88" s="3">
+        <v>979807</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="14.25">
+      <c r="A89" t="s">
         <v>84</v>
-      </c>
-      <c r="B85" s="1">
-        <v>1005942</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="14.25">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" s="1">
-        <v>997157</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="14.25">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" s="1">
-        <v>994860</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="14.25">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="1">
-        <v>979807</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="14.25">
-      <c r="A89" t="s">
-        <v>88</v>
       </c>
       <c r="B89" s="1">
         <v>962465</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="14.25">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" s="1">
+      <c r="C89" t="s">
+        <v>191</v>
+      </c>
+      <c r="G89" t="s">
+        <v>192</v>
+      </c>
+      <c r="H89" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="2" customFormat="1">
+      <c r="A90" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" s="3">
         <v>940980</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="14.25">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="1">
+    <row r="91" spans="1:8" s="2" customFormat="1">
+      <c r="A91" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" s="3">
         <v>857682</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="14.25">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="1">
+    <row r="92" spans="1:8" s="4" customFormat="1">
+      <c r="A92" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92" s="4">
         <v>857631</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="14.25">
+      <c r="G92" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="14.25">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B93" s="1">
         <v>856125</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="14.25">
-      <c r="A94" t="s">
+      <c r="C93" t="s">
+        <v>108</v>
+      </c>
+      <c r="G93" t="s">
+        <v>113</v>
+      </c>
+      <c r="H93" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="2" customFormat="1">
+      <c r="A94" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" s="3">
+        <v>853977</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95">
+        <v>811443</v>
+      </c>
+      <c r="C95" t="s">
+        <v>149</v>
+      </c>
+      <c r="G95" t="s">
+        <v>148</v>
+      </c>
+      <c r="H95" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="2" customFormat="1">
+      <c r="A96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="3">
+        <v>808732</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="2" customFormat="1">
+      <c r="A97" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97" s="3">
+        <v>795054</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="2" customFormat="1">
+      <c r="A98" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="1">
-        <v>853977</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="14.25">
-      <c r="A95" t="s">
+      <c r="B98" s="3">
+        <v>773978</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="14.25">
+      <c r="A99" t="s">
         <v>94</v>
-      </c>
-      <c r="B95" s="1">
-        <v>811443</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="14.25">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" s="1">
-        <v>808732</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="14.25">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" s="1">
-        <v>795054</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="14.25">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" s="1">
-        <v>773978</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="14.25">
-      <c r="A99" t="s">
-        <v>98</v>
       </c>
       <c r="B99" s="1">
         <v>772363</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="14.25">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" s="1">
+      <c r="C99" t="s">
+        <v>149</v>
+      </c>
+      <c r="G99" t="s">
+        <v>150</v>
+      </c>
+      <c r="H99" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="2" customFormat="1">
+      <c r="A100" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" s="3">
         <v>771332</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="14.25">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" s="1">
+        <v>96</v>
+      </c>
+      <c r="B101">
         <v>751080</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="14.25">
+      <c r="C101" t="s">
+        <v>111</v>
+      </c>
+      <c r="G101" t="s">
+        <v>151</v>
+      </c>
+      <c r="H101" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="14.25">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" ht="14.25">
+    <row r="103" spans="1:8" ht="14.25">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2" ht="14.25">
+    <row r="104" spans="1:8" ht="14.25">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" ht="14.25">
+    <row r="105" spans="1:8" ht="14.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:2" ht="14.25">
+    <row r="106" spans="1:8" ht="14.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="1:2" ht="14.25">
+    <row r="107" spans="1:8" ht="14.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:2" ht="14.25">
+    <row r="108" spans="1:8" ht="14.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:2" ht="14.25">
+    <row r="109" spans="1:8" ht="14.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:2" ht="14.25">
+    <row r="110" spans="1:8" ht="14.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:2" ht="14.25">
+    <row r="111" spans="1:8" ht="14.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:2" ht="14.25">
+    <row r="112" spans="1:8" ht="14.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" ht="14.25">
@@ -2165,6 +3128,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2178,7 +3142,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
